--- a/Code/Results/Cases/Case_2_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021967553143277</v>
+        <v>1.043216674681025</v>
       </c>
       <c r="D2">
-        <v>1.040271063731659</v>
+        <v>1.051298328604505</v>
       </c>
       <c r="E2">
-        <v>1.035400982114242</v>
+        <v>1.057597504576344</v>
       </c>
       <c r="F2">
-        <v>1.046579000014225</v>
+        <v>1.064579297132833</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05850407356435</v>
+        <v>1.047099349186998</v>
       </c>
       <c r="J2">
-        <v>1.043510499416647</v>
+        <v>1.048288311811995</v>
       </c>
       <c r="K2">
-        <v>1.051196481914524</v>
+        <v>1.054050218260536</v>
       </c>
       <c r="L2">
-        <v>1.046388209013055</v>
+        <v>1.06033203795109</v>
       </c>
       <c r="M2">
-        <v>1.05742542622714</v>
+        <v>1.067294853150819</v>
       </c>
       <c r="N2">
-        <v>1.044992404018146</v>
+        <v>1.049777001455118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025904510837413</v>
+        <v>1.044046547712729</v>
       </c>
       <c r="D3">
-        <v>1.043271844984546</v>
+        <v>1.051954060995268</v>
       </c>
       <c r="E3">
-        <v>1.039063214986631</v>
+        <v>1.058452524966801</v>
       </c>
       <c r="F3">
-        <v>1.050173607963003</v>
+        <v>1.065398262614001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059862826519026</v>
+        <v>1.047329446234386</v>
       </c>
       <c r="J3">
-        <v>1.045713066796523</v>
+        <v>1.048765535286832</v>
       </c>
       <c r="K3">
-        <v>1.053379446483114</v>
+        <v>1.054518972720222</v>
       </c>
       <c r="L3">
-        <v>1.049219529563247</v>
+        <v>1.061000821452982</v>
       </c>
       <c r="M3">
-        <v>1.060202366611373</v>
+        <v>1.067929041701335</v>
       </c>
       <c r="N3">
-        <v>1.04719809929634</v>
+        <v>1.050254902642027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028404276464522</v>
+        <v>1.044584025395771</v>
       </c>
       <c r="D4">
-        <v>1.045179917825562</v>
+        <v>1.052378801606131</v>
       </c>
       <c r="E4">
-        <v>1.041397630367618</v>
+        <v>1.059007083113257</v>
       </c>
       <c r="F4">
-        <v>1.052462169595605</v>
+        <v>1.065929136597933</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060716097688192</v>
+        <v>1.047477299817973</v>
       </c>
       <c r="J4">
-        <v>1.047108285861574</v>
+        <v>1.049074143711101</v>
       </c>
       <c r="K4">
-        <v>1.054762005372464</v>
+        <v>1.054822039635879</v>
       </c>
       <c r="L4">
-        <v>1.051020833103114</v>
+        <v>1.06143422455105</v>
       </c>
       <c r="M4">
-        <v>1.061966114731736</v>
+        <v>1.068339697535765</v>
       </c>
       <c r="N4">
-        <v>1.048595299732496</v>
+        <v>1.050563949325657</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029444104527661</v>
+        <v>1.044810097734625</v>
       </c>
       <c r="D5">
-        <v>1.045974236781159</v>
+        <v>1.052557465640658</v>
       </c>
       <c r="E5">
-        <v>1.042370829867916</v>
+        <v>1.059240529326697</v>
       </c>
       <c r="F5">
-        <v>1.053415592317677</v>
+        <v>1.066152541183709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061068727521071</v>
+        <v>1.047539208963685</v>
       </c>
       <c r="J5">
-        <v>1.047687837833509</v>
+        <v>1.049203836665245</v>
       </c>
       <c r="K5">
-        <v>1.05533623415606</v>
+        <v>1.054949388164897</v>
       </c>
       <c r="L5">
-        <v>1.05177094676996</v>
+        <v>1.061616582534054</v>
       </c>
       <c r="M5">
-        <v>1.062699877019992</v>
+        <v>1.068512405909791</v>
       </c>
       <c r="N5">
-        <v>1.049175674734707</v>
+        <v>1.050693826458672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029618056732131</v>
+        <v>1.044848063072463</v>
       </c>
       <c r="D6">
-        <v>1.04610715313216</v>
+        <v>1.052587470111943</v>
       </c>
       <c r="E6">
-        <v>1.042533761545384</v>
+        <v>1.059279744094052</v>
       </c>
       <c r="F6">
-        <v>1.053575174124944</v>
+        <v>1.066190064944435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061127582248289</v>
+        <v>1.047549589185722</v>
       </c>
       <c r="J6">
-        <v>1.047784741915207</v>
+        <v>1.049225609947768</v>
       </c>
       <c r="K6">
-        <v>1.055432244214764</v>
+        <v>1.054970766940137</v>
       </c>
       <c r="L6">
-        <v>1.051896480493102</v>
+        <v>1.061647210303491</v>
       </c>
       <c r="M6">
-        <v>1.062822632359139</v>
+        <v>1.068541408385911</v>
       </c>
       <c r="N6">
-        <v>1.049272716431316</v>
+        <v>1.050715630661754</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028418213757843</v>
+        <v>1.044587045728826</v>
       </c>
       <c r="D7">
-        <v>1.045190562058222</v>
+        <v>1.05238118852087</v>
       </c>
       <c r="E7">
-        <v>1.04141066614441</v>
+        <v>1.059010201217433</v>
       </c>
       <c r="F7">
-        <v>1.052474943075865</v>
+        <v>1.065932120858622</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060720833296968</v>
+        <v>1.047478128028466</v>
       </c>
       <c r="J7">
-        <v>1.047116057125988</v>
+        <v>1.049075876857114</v>
       </c>
       <c r="K7">
-        <v>1.054769705519998</v>
+        <v>1.054823741513694</v>
       </c>
       <c r="L7">
-        <v>1.051030884001106</v>
+        <v>1.061436660619045</v>
       </c>
       <c r="M7">
-        <v>1.061975949349505</v>
+        <v>1.068342005005714</v>
       </c>
       <c r="N7">
-        <v>1.048603082032997</v>
+        <v>1.050565684932936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023308159520361</v>
+        <v>1.043497030823613</v>
       </c>
       <c r="D8">
-        <v>1.041292289360229</v>
+        <v>1.051519844710667</v>
       </c>
       <c r="E8">
-        <v>1.036646119117536</v>
+        <v>1.057886191817061</v>
       </c>
       <c r="F8">
-        <v>1.047801718061298</v>
+        <v>1.064855872790885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058968715880376</v>
+        <v>1.047177325288805</v>
       </c>
       <c r="J8">
-        <v>1.044261188593923</v>
+        <v>1.048449629708434</v>
       </c>
       <c r="K8">
-        <v>1.051940537122524</v>
+        <v>1.05420868671295</v>
       </c>
       <c r="L8">
-        <v>1.047351561623004</v>
+        <v>1.060557919791478</v>
       </c>
       <c r="M8">
-        <v>1.058370893459311</v>
+        <v>1.067509118428362</v>
       </c>
       <c r="N8">
-        <v>1.045744159260159</v>
+        <v>1.049938548441474</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013921764529064</v>
+        <v>1.041580143241208</v>
       </c>
       <c r="D9">
-        <v>1.034155232705111</v>
+        <v>1.050005478204498</v>
       </c>
       <c r="E9">
-        <v>1.027967820059862</v>
+        <v>1.055915606304584</v>
       </c>
       <c r="F9">
-        <v>1.039268186906593</v>
+        <v>1.062966736027776</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055676836892817</v>
+        <v>1.046639384864262</v>
       </c>
       <c r="J9">
-        <v>1.038992309390107</v>
+        <v>1.047344724324417</v>
       </c>
       <c r="K9">
-        <v>1.046717446542454</v>
+        <v>1.053123035133944</v>
       </c>
       <c r="L9">
-        <v>1.040622869437792</v>
+        <v>1.059014556758687</v>
       </c>
       <c r="M9">
-        <v>1.05175474560478</v>
+        <v>1.066043783446044</v>
       </c>
       <c r="N9">
-        <v>1.040467797643525</v>
+        <v>1.048832073965076</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00738322911444</v>
+        <v>1.04030490869416</v>
       </c>
       <c r="D10">
-        <v>1.02920213292373</v>
+        <v>1.048998312102363</v>
       </c>
       <c r="E10">
-        <v>1.021974347350417</v>
+        <v>1.054608762817408</v>
       </c>
       <c r="F10">
-        <v>1.033360199110965</v>
+        <v>1.061712367859601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053336237089593</v>
+        <v>1.046275503467192</v>
       </c>
       <c r="J10">
-        <v>1.035306945103021</v>
+        <v>1.046607268208597</v>
       </c>
       <c r="K10">
-        <v>1.043063418775684</v>
+        <v>1.052398103139715</v>
       </c>
       <c r="L10">
-        <v>1.035957867943323</v>
+        <v>1.057989165943723</v>
       </c>
       <c r="M10">
-        <v>1.047152162224181</v>
+        <v>1.065068546354015</v>
       </c>
       <c r="N10">
-        <v>1.036777199716433</v>
+        <v>1.048093570576985</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004479548552945</v>
+        <v>1.039753376494002</v>
       </c>
       <c r="D11">
-        <v>1.027007549266635</v>
+        <v>1.048562792121035</v>
       </c>
       <c r="E11">
-        <v>1.01932552290225</v>
+        <v>1.054044541276425</v>
       </c>
       <c r="F11">
-        <v>1.030745730153112</v>
+        <v>1.061170436116738</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052286050576648</v>
+        <v>1.046116702753811</v>
       </c>
       <c r="J11">
-        <v>1.033667153199946</v>
+        <v>1.046287754910638</v>
       </c>
       <c r="K11">
-        <v>1.041437503626032</v>
+        <v>1.05208393968676</v>
       </c>
       <c r="L11">
-        <v>1.033891964331703</v>
+        <v>1.057546014910915</v>
       </c>
       <c r="M11">
-        <v>1.045110220831601</v>
+        <v>1.064646669946485</v>
       </c>
       <c r="N11">
-        <v>1.03513507912077</v>
+        <v>1.047773603533494</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.003389580467297</v>
+        <v>1.039548612571521</v>
       </c>
       <c r="D12">
-        <v>1.026184568579251</v>
+        <v>1.048401110971235</v>
       </c>
       <c r="E12">
-        <v>1.018333191042942</v>
+        <v>1.053835214183206</v>
       </c>
       <c r="F12">
-        <v>1.029765755348433</v>
+        <v>1.060969323483392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051890265591648</v>
+        <v>1.046057531958352</v>
       </c>
       <c r="J12">
-        <v>1.03305117672142</v>
+        <v>1.046169046154073</v>
       </c>
       <c r="K12">
-        <v>1.040826738505546</v>
+        <v>1.051967207164077</v>
       </c>
       <c r="L12">
-        <v>1.033117387487635</v>
+        <v>1.057381538210117</v>
       </c>
       <c r="M12">
-        <v>1.044344077028206</v>
+        <v>1.064490029125157</v>
       </c>
       <c r="N12">
-        <v>1.03451822788499</v>
+        <v>1.047654726196879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003623907542807</v>
+        <v>1.039592530590569</v>
       </c>
       <c r="D13">
-        <v>1.026361459763251</v>
+        <v>1.048435788008979</v>
       </c>
       <c r="E13">
-        <v>1.018546437984847</v>
+        <v>1.053880104214768</v>
       </c>
       <c r="F13">
-        <v>1.029976370024059</v>
+        <v>1.061012454425271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051975423820826</v>
+        <v>1.046070232659857</v>
       </c>
       <c r="J13">
-        <v>1.033183621887468</v>
+        <v>1.046194510800339</v>
       </c>
       <c r="K13">
-        <v>1.04095806306198</v>
+        <v>1.05199224839545</v>
       </c>
       <c r="L13">
-        <v>1.033283868181112</v>
+        <v>1.057416813142446</v>
       </c>
       <c r="M13">
-        <v>1.044508770086087</v>
+        <v>1.064523626242646</v>
       </c>
       <c r="N13">
-        <v>1.034650861138366</v>
+        <v>1.047680227005864</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004389687407656</v>
+        <v>1.039736448601184</v>
       </c>
       <c r="D14">
-        <v>1.026939682779837</v>
+        <v>1.048549425653073</v>
       </c>
       <c r="E14">
-        <v>1.01924367093362</v>
+        <v>1.054027233124149</v>
       </c>
       <c r="F14">
-        <v>1.030664907893718</v>
+        <v>1.061153808299552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052253452240522</v>
+        <v>1.046111815449531</v>
       </c>
       <c r="J14">
-        <v>1.033616378477542</v>
+        <v>1.046277942957329</v>
       </c>
       <c r="K14">
-        <v>1.041387158450541</v>
+        <v>1.052074291312332</v>
       </c>
       <c r="L14">
-        <v>1.033828086458054</v>
+        <v>1.057532416567933</v>
       </c>
       <c r="M14">
-        <v>1.045047049617685</v>
+        <v>1.064633720675685</v>
       </c>
       <c r="N14">
-        <v>1.035084232292436</v>
+        <v>1.047763777646086</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004859981182051</v>
+        <v>1.039825134496349</v>
       </c>
       <c r="D15">
-        <v>1.027294899553775</v>
+        <v>1.048619453583385</v>
       </c>
       <c r="E15">
-        <v>1.019672128803035</v>
+        <v>1.054117917275329</v>
       </c>
       <c r="F15">
-        <v>1.031087954747936</v>
+        <v>1.061240925652509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052423993795014</v>
+        <v>1.04613741146995</v>
       </c>
       <c r="J15">
-        <v>1.033882093344984</v>
+        <v>1.046329344683702</v>
       </c>
       <c r="K15">
-        <v>1.041650625405242</v>
+        <v>1.052124835634529</v>
       </c>
       <c r="L15">
-        <v>1.034162432622958</v>
+        <v>1.057603660839154</v>
       </c>
       <c r="M15">
-        <v>1.045377674542332</v>
+        <v>1.064701561867232</v>
       </c>
       <c r="N15">
-        <v>1.035350324505467</v>
+        <v>1.047815252368806</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007574366111037</v>
+        <v>1.040341525961419</v>
       </c>
       <c r="D16">
-        <v>1.02934670251817</v>
+        <v>1.049027228703426</v>
       </c>
       <c r="E16">
-        <v>1.022148979115342</v>
+        <v>1.054646243281069</v>
       </c>
       <c r="F16">
-        <v>1.033532494401852</v>
+        <v>1.061748359912894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053405145795788</v>
+        <v>1.046286016540041</v>
       </c>
       <c r="J16">
-        <v>1.035414822577199</v>
+        <v>1.04662846935839</v>
       </c>
       <c r="K16">
-        <v>1.043170382673315</v>
+        <v>1.05241894770101</v>
       </c>
       <c r="L16">
-        <v>1.036093981614144</v>
+        <v>1.058018594464837</v>
       </c>
       <c r="M16">
-        <v>1.047286620430697</v>
+        <v>1.065096553628715</v>
       </c>
       <c r="N16">
-        <v>1.036885230388999</v>
+        <v>1.048114801834843</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009257268656977</v>
+        <v>1.040665620594684</v>
       </c>
       <c r="D17">
-        <v>1.030620172772285</v>
+        <v>1.049283174372239</v>
       </c>
       <c r="E17">
-        <v>1.023688022787798</v>
+        <v>1.054978091451378</v>
       </c>
       <c r="F17">
-        <v>1.035050555292443</v>
+        <v>1.062066987483637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054010644963727</v>
+        <v>1.04637890178391</v>
       </c>
       <c r="J17">
-        <v>1.03636429368214</v>
+        <v>1.046816052391576</v>
       </c>
       <c r="K17">
-        <v>1.0441118065043</v>
+        <v>1.052603366905601</v>
       </c>
       <c r="L17">
-        <v>1.037293083054865</v>
+        <v>1.058279100072391</v>
       </c>
       <c r="M17">
-        <v>1.048470718091706</v>
+        <v>1.065344431811463</v>
       </c>
       <c r="N17">
-        <v>1.037836049851815</v>
+        <v>1.048302651257451</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010231923927587</v>
+        <v>1.040854722385345</v>
       </c>
       <c r="D18">
-        <v>1.031358178602938</v>
+        <v>1.049432519917693</v>
       </c>
       <c r="E18">
-        <v>1.024580575397898</v>
+        <v>1.055171811973963</v>
       </c>
       <c r="F18">
-        <v>1.035930612674674</v>
+        <v>1.062252954938014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054360295365726</v>
+        <v>1.046432960704105</v>
       </c>
       <c r="J18">
-        <v>1.036913877588519</v>
+        <v>1.046925447991928</v>
       </c>
       <c r="K18">
-        <v>1.044656725511709</v>
+        <v>1.052710910033354</v>
       </c>
       <c r="L18">
-        <v>1.037988089041542</v>
+        <v>1.058431130485196</v>
       </c>
       <c r="M18">
-        <v>1.049156677388412</v>
+        <v>1.065489054189796</v>
       </c>
       <c r="N18">
-        <v>1.038386414230379</v>
+        <v>1.048412202212104</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010563092265878</v>
+        <v>1.040919211824409</v>
       </c>
       <c r="D19">
-        <v>1.031609016956028</v>
+        <v>1.049483452463636</v>
       </c>
       <c r="E19">
-        <v>1.024884051373333</v>
+        <v>1.055237892592092</v>
       </c>
       <c r="F19">
-        <v>1.036229784750084</v>
+        <v>1.062316384884641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054478924357142</v>
+        <v>1.046451373110037</v>
       </c>
       <c r="J19">
-        <v>1.0371005626495</v>
+        <v>1.046962745904243</v>
       </c>
       <c r="K19">
-        <v>1.044841824560476</v>
+        <v>1.052747575100283</v>
       </c>
       <c r="L19">
-        <v>1.038224329254528</v>
+        <v>1.058482982769173</v>
       </c>
       <c r="M19">
-        <v>1.04938978304083</v>
+        <v>1.065538373288223</v>
       </c>
       <c r="N19">
-        <v>1.03857336440556</v>
+        <v>1.048449553091732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009077432060929</v>
+        <v>1.040630841792641</v>
       </c>
       <c r="D20">
-        <v>1.03048403897556</v>
+        <v>1.049255707939659</v>
       </c>
       <c r="E20">
-        <v>1.023523432914788</v>
+        <v>1.054942470812701</v>
       </c>
       <c r="F20">
-        <v>1.034888243217008</v>
+        <v>1.062032789605115</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053946046762587</v>
+        <v>1.046368948427939</v>
       </c>
       <c r="J20">
-        <v>1.036262863513508</v>
+        <v>1.046795928402558</v>
       </c>
       <c r="K20">
-        <v>1.044011236664132</v>
+        <v>1.052583583095789</v>
       </c>
       <c r="L20">
-        <v>1.037164889096345</v>
+        <v>1.058251141803126</v>
       </c>
       <c r="M20">
-        <v>1.048344164483874</v>
+        <v>1.065317832759186</v>
       </c>
       <c r="N20">
-        <v>1.037734475640708</v>
+        <v>1.048282498690061</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004164503738195</v>
+        <v>1.03969406556905</v>
       </c>
       <c r="D21">
-        <v>1.026769628929123</v>
+        <v>1.04851595969046</v>
       </c>
       <c r="E21">
-        <v>1.019038589417389</v>
+        <v>1.053983900412909</v>
       </c>
       <c r="F21">
-        <v>1.030462398055259</v>
+        <v>1.061112177985575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052171738673054</v>
+        <v>1.046099575458685</v>
       </c>
       <c r="J21">
-        <v>1.033489134779054</v>
+        <v>1.046253375009971</v>
       </c>
       <c r="K21">
-        <v>1.041260991223818</v>
+        <v>1.052050132763003</v>
       </c>
       <c r="L21">
-        <v>1.03366802928629</v>
+        <v>1.057498370657416</v>
       </c>
       <c r="M21">
-        <v>1.044888754226337</v>
+        <v>1.064601298861001</v>
       </c>
       <c r="N21">
-        <v>1.0349568078933</v>
+        <v>1.047739174809425</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001009240786076</v>
+        <v>1.039105654778151</v>
       </c>
       <c r="D22">
-        <v>1.024388844921025</v>
+        <v>1.048051374298421</v>
       </c>
       <c r="E22">
-        <v>1.016169748869693</v>
+        <v>1.053382656027918</v>
       </c>
       <c r="F22">
-        <v>1.027628311486203</v>
+        <v>1.060534423929619</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051023087834715</v>
+        <v>1.045929139219208</v>
       </c>
       <c r="J22">
-        <v>1.03170520093932</v>
+        <v>1.045912092874709</v>
       </c>
       <c r="K22">
-        <v>1.039492157435853</v>
+        <v>1.05171451083456</v>
       </c>
       <c r="L22">
-        <v>1.031427544425544</v>
+        <v>1.057025822595749</v>
       </c>
       <c r="M22">
-        <v>1.042671621010199</v>
+        <v>1.064151150048306</v>
       </c>
       <c r="N22">
-        <v>1.033170340662895</v>
+        <v>1.047397408014386</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002688375161272</v>
+        <v>1.039417527179314</v>
       </c>
       <c r="D23">
-        <v>1.025655358787098</v>
+        <v>1.048297609569836</v>
       </c>
       <c r="E23">
-        <v>1.017695358721173</v>
+        <v>1.053701249248513</v>
       </c>
       <c r="F23">
-        <v>1.029135721087223</v>
+        <v>1.060840600111948</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051635209505325</v>
+        <v>1.046019591920943</v>
       </c>
       <c r="J23">
-        <v>1.032654783328837</v>
+        <v>1.046093027485078</v>
       </c>
       <c r="K23">
-        <v>1.040433699454532</v>
+        <v>1.051892450838092</v>
       </c>
       <c r="L23">
-        <v>1.03261934420213</v>
+        <v>1.057276257720748</v>
       </c>
       <c r="M23">
-        <v>1.043851300983926</v>
+        <v>1.06438974736418</v>
       </c>
       <c r="N23">
-        <v>1.034121271568323</v>
+        <v>1.047578599572654</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009158713927524</v>
+        <v>1.040646556642168</v>
       </c>
       <c r="D24">
-        <v>1.030545566751255</v>
+        <v>1.049268118663089</v>
       </c>
       <c r="E24">
-        <v>1.023597819867502</v>
+        <v>1.05495856575471</v>
       </c>
       <c r="F24">
-        <v>1.034961601722795</v>
+        <v>1.062048241791944</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053975246795162</v>
+        <v>1.046373446290304</v>
       </c>
       <c r="J24">
-        <v>1.036308708482292</v>
+        <v>1.046805021624001</v>
       </c>
       <c r="K24">
-        <v>1.044056692798885</v>
+        <v>1.05259252262673</v>
       </c>
       <c r="L24">
-        <v>1.037222828033184</v>
+        <v>1.058263774688708</v>
       </c>
       <c r="M24">
-        <v>1.048401363128656</v>
+        <v>1.06532985160496</v>
       </c>
       <c r="N24">
-        <v>1.037780385714607</v>
+        <v>1.048291604824921</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016396030745072</v>
+        <v>1.042075237493477</v>
       </c>
       <c r="D25">
-        <v>1.036033564508121</v>
+        <v>1.050396560835878</v>
       </c>
       <c r="E25">
-        <v>1.030246644977287</v>
+        <v>1.05642384560634</v>
       </c>
       <c r="F25">
-        <v>1.041511515808796</v>
+        <v>1.063454240346802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05655294451994</v>
+        <v>1.046779385062849</v>
       </c>
       <c r="J25">
-        <v>1.040383927529069</v>
+        <v>1.047630524525224</v>
       </c>
       <c r="K25">
-        <v>1.048097121044912</v>
+        <v>1.053403912951063</v>
       </c>
       <c r="L25">
-        <v>1.042392888612135</v>
+        <v>1.059412940022482</v>
       </c>
       <c r="M25">
-        <v>1.053497869068262</v>
+        <v>1.066422323261479</v>
       </c>
       <c r="N25">
-        <v>1.041861392039865</v>
+        <v>1.049118280034951</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_197/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_197/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043216674681025</v>
+        <v>1.021967553143277</v>
       </c>
       <c r="D2">
-        <v>1.051298328604505</v>
+        <v>1.04027106373166</v>
       </c>
       <c r="E2">
-        <v>1.057597504576344</v>
+        <v>1.035400982114242</v>
       </c>
       <c r="F2">
-        <v>1.064579297132833</v>
+        <v>1.046579000014226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047099349186998</v>
+        <v>1.05850407356435</v>
       </c>
       <c r="J2">
-        <v>1.048288311811995</v>
+        <v>1.043510499416647</v>
       </c>
       <c r="K2">
-        <v>1.054050218260536</v>
+        <v>1.051196481914525</v>
       </c>
       <c r="L2">
-        <v>1.06033203795109</v>
+        <v>1.046388209013055</v>
       </c>
       <c r="M2">
-        <v>1.067294853150819</v>
+        <v>1.05742542622714</v>
       </c>
       <c r="N2">
-        <v>1.049777001455118</v>
+        <v>1.044992404018146</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044046547712729</v>
+        <v>1.025904510837413</v>
       </c>
       <c r="D3">
-        <v>1.051954060995268</v>
+        <v>1.043271844984547</v>
       </c>
       <c r="E3">
-        <v>1.058452524966801</v>
+        <v>1.039063214986631</v>
       </c>
       <c r="F3">
-        <v>1.065398262614001</v>
+        <v>1.050173607963003</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047329446234386</v>
+        <v>1.059862826519027</v>
       </c>
       <c r="J3">
-        <v>1.048765535286832</v>
+        <v>1.045713066796524</v>
       </c>
       <c r="K3">
-        <v>1.054518972720222</v>
+        <v>1.053379446483114</v>
       </c>
       <c r="L3">
-        <v>1.061000821452982</v>
+        <v>1.049219529563247</v>
       </c>
       <c r="M3">
-        <v>1.067929041701335</v>
+        <v>1.060202366611373</v>
       </c>
       <c r="N3">
-        <v>1.050254902642027</v>
+        <v>1.04719809929634</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044584025395771</v>
+        <v>1.028404276464523</v>
       </c>
       <c r="D4">
-        <v>1.052378801606131</v>
+        <v>1.045179917825563</v>
       </c>
       <c r="E4">
-        <v>1.059007083113257</v>
+        <v>1.041397630367618</v>
       </c>
       <c r="F4">
-        <v>1.065929136597933</v>
+        <v>1.052462169595606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047477299817973</v>
+        <v>1.060716097688192</v>
       </c>
       <c r="J4">
-        <v>1.049074143711101</v>
+        <v>1.047108285861574</v>
       </c>
       <c r="K4">
-        <v>1.054822039635879</v>
+        <v>1.054762005372464</v>
       </c>
       <c r="L4">
-        <v>1.06143422455105</v>
+        <v>1.051020833103115</v>
       </c>
       <c r="M4">
-        <v>1.068339697535765</v>
+        <v>1.061966114731737</v>
       </c>
       <c r="N4">
-        <v>1.050563949325657</v>
+        <v>1.048595299732497</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044810097734625</v>
+        <v>1.029444104527662</v>
       </c>
       <c r="D5">
-        <v>1.052557465640658</v>
+        <v>1.04597423678116</v>
       </c>
       <c r="E5">
-        <v>1.059240529326697</v>
+        <v>1.042370829867917</v>
       </c>
       <c r="F5">
-        <v>1.066152541183709</v>
+        <v>1.053415592317678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047539208963685</v>
+        <v>1.061068727521071</v>
       </c>
       <c r="J5">
-        <v>1.049203836665245</v>
+        <v>1.047687837833509</v>
       </c>
       <c r="K5">
-        <v>1.054949388164897</v>
+        <v>1.055336234156061</v>
       </c>
       <c r="L5">
-        <v>1.061616582534054</v>
+        <v>1.05177094676996</v>
       </c>
       <c r="M5">
-        <v>1.068512405909791</v>
+        <v>1.062699877019992</v>
       </c>
       <c r="N5">
-        <v>1.050693826458672</v>
+        <v>1.049175674734707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044848063072463</v>
+        <v>1.029618056732132</v>
       </c>
       <c r="D6">
-        <v>1.052587470111943</v>
+        <v>1.046107153132161</v>
       </c>
       <c r="E6">
-        <v>1.059279744094052</v>
+        <v>1.042533761545384</v>
       </c>
       <c r="F6">
-        <v>1.066190064944435</v>
+        <v>1.053575174124944</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047549589185722</v>
+        <v>1.06112758224829</v>
       </c>
       <c r="J6">
-        <v>1.049225609947768</v>
+        <v>1.047784741915208</v>
       </c>
       <c r="K6">
-        <v>1.054970766940137</v>
+        <v>1.055432244214765</v>
       </c>
       <c r="L6">
-        <v>1.061647210303491</v>
+        <v>1.051896480493102</v>
       </c>
       <c r="M6">
-        <v>1.068541408385911</v>
+        <v>1.06282263235914</v>
       </c>
       <c r="N6">
-        <v>1.050715630661754</v>
+        <v>1.049272716431317</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044587045728826</v>
+        <v>1.028418213757842</v>
       </c>
       <c r="D7">
-        <v>1.05238118852087</v>
+        <v>1.045190562058221</v>
       </c>
       <c r="E7">
-        <v>1.059010201217433</v>
+        <v>1.04141066614441</v>
       </c>
       <c r="F7">
-        <v>1.065932120858622</v>
+        <v>1.052474943075865</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047478128028466</v>
+        <v>1.060720833296968</v>
       </c>
       <c r="J7">
-        <v>1.049075876857114</v>
+        <v>1.047116057125988</v>
       </c>
       <c r="K7">
-        <v>1.054823741513694</v>
+        <v>1.054769705519998</v>
       </c>
       <c r="L7">
-        <v>1.061436660619045</v>
+        <v>1.051030884001106</v>
       </c>
       <c r="M7">
-        <v>1.068342005005714</v>
+        <v>1.061975949349504</v>
       </c>
       <c r="N7">
-        <v>1.050565684932936</v>
+        <v>1.048603082032997</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043497030823613</v>
+        <v>1.023308159520361</v>
       </c>
       <c r="D8">
-        <v>1.051519844710667</v>
+        <v>1.04129228936023</v>
       </c>
       <c r="E8">
-        <v>1.057886191817061</v>
+        <v>1.036646119117536</v>
       </c>
       <c r="F8">
-        <v>1.064855872790885</v>
+        <v>1.047801718061299</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047177325288805</v>
+        <v>1.058968715880377</v>
       </c>
       <c r="J8">
-        <v>1.048449629708434</v>
+        <v>1.044261188593924</v>
       </c>
       <c r="K8">
-        <v>1.05420868671295</v>
+        <v>1.051940537122525</v>
       </c>
       <c r="L8">
-        <v>1.060557919791478</v>
+        <v>1.047351561623005</v>
       </c>
       <c r="M8">
-        <v>1.067509118428362</v>
+        <v>1.058370893459312</v>
       </c>
       <c r="N8">
-        <v>1.049938548441474</v>
+        <v>1.04574415926016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041580143241208</v>
+        <v>1.013921764529065</v>
       </c>
       <c r="D9">
-        <v>1.050005478204498</v>
+        <v>1.034155232705112</v>
       </c>
       <c r="E9">
-        <v>1.055915606304584</v>
+        <v>1.027967820059863</v>
       </c>
       <c r="F9">
-        <v>1.062966736027776</v>
+        <v>1.039268186906594</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046639384864262</v>
+        <v>1.055676836892818</v>
       </c>
       <c r="J9">
-        <v>1.047344724324417</v>
+        <v>1.038992309390108</v>
       </c>
       <c r="K9">
-        <v>1.053123035133944</v>
+        <v>1.046717446542455</v>
       </c>
       <c r="L9">
-        <v>1.059014556758687</v>
+        <v>1.040622869437793</v>
       </c>
       <c r="M9">
-        <v>1.066043783446044</v>
+        <v>1.051754745604781</v>
       </c>
       <c r="N9">
-        <v>1.048832073965076</v>
+        <v>1.040467797643525</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04030490869416</v>
+        <v>1.007383229114439</v>
       </c>
       <c r="D10">
-        <v>1.048998312102363</v>
+        <v>1.02920213292373</v>
       </c>
       <c r="E10">
-        <v>1.054608762817408</v>
+        <v>1.021974347350416</v>
       </c>
       <c r="F10">
-        <v>1.061712367859601</v>
+        <v>1.033360199110964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046275503467192</v>
+        <v>1.053336237089592</v>
       </c>
       <c r="J10">
-        <v>1.046607268208597</v>
+        <v>1.03530694510302</v>
       </c>
       <c r="K10">
-        <v>1.052398103139715</v>
+        <v>1.043063418775683</v>
       </c>
       <c r="L10">
-        <v>1.057989165943723</v>
+        <v>1.035957867943322</v>
       </c>
       <c r="M10">
-        <v>1.065068546354015</v>
+        <v>1.04715216222418</v>
       </c>
       <c r="N10">
-        <v>1.048093570576985</v>
+        <v>1.036777199716432</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039753376494002</v>
+        <v>1.004479548552945</v>
       </c>
       <c r="D11">
-        <v>1.048562792121035</v>
+        <v>1.027007549266635</v>
       </c>
       <c r="E11">
-        <v>1.054044541276425</v>
+        <v>1.01932552290225</v>
       </c>
       <c r="F11">
-        <v>1.061170436116738</v>
+        <v>1.030745730153112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046116702753811</v>
+        <v>1.052286050576648</v>
       </c>
       <c r="J11">
-        <v>1.046287754910638</v>
+        <v>1.033667153199946</v>
       </c>
       <c r="K11">
-        <v>1.05208393968676</v>
+        <v>1.041437503626031</v>
       </c>
       <c r="L11">
-        <v>1.057546014910915</v>
+        <v>1.033891964331703</v>
       </c>
       <c r="M11">
-        <v>1.064646669946485</v>
+        <v>1.045110220831601</v>
       </c>
       <c r="N11">
-        <v>1.047773603533494</v>
+        <v>1.03513507912077</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039548612571521</v>
+        <v>1.003389580467297</v>
       </c>
       <c r="D12">
-        <v>1.048401110971235</v>
+        <v>1.026184568579252</v>
       </c>
       <c r="E12">
-        <v>1.053835214183206</v>
+        <v>1.018333191042943</v>
       </c>
       <c r="F12">
-        <v>1.060969323483392</v>
+        <v>1.029765755348433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046057531958352</v>
+        <v>1.051890265591649</v>
       </c>
       <c r="J12">
-        <v>1.046169046154073</v>
+        <v>1.03305117672142</v>
       </c>
       <c r="K12">
-        <v>1.051967207164077</v>
+        <v>1.040826738505546</v>
       </c>
       <c r="L12">
-        <v>1.057381538210117</v>
+        <v>1.033117387487636</v>
       </c>
       <c r="M12">
-        <v>1.064490029125157</v>
+        <v>1.044344077028206</v>
       </c>
       <c r="N12">
-        <v>1.047654726196879</v>
+        <v>1.03451822788499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039592530590569</v>
+        <v>1.003623907542806</v>
       </c>
       <c r="D13">
-        <v>1.048435788008979</v>
+        <v>1.02636145976325</v>
       </c>
       <c r="E13">
-        <v>1.053880104214768</v>
+        <v>1.018546437984847</v>
       </c>
       <c r="F13">
-        <v>1.061012454425271</v>
+        <v>1.029976370024059</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046070232659857</v>
+        <v>1.051975423820826</v>
       </c>
       <c r="J13">
-        <v>1.046194510800339</v>
+        <v>1.033183621887467</v>
       </c>
       <c r="K13">
-        <v>1.05199224839545</v>
+        <v>1.04095806306198</v>
       </c>
       <c r="L13">
-        <v>1.057416813142446</v>
+        <v>1.033283868181112</v>
       </c>
       <c r="M13">
-        <v>1.064523626242646</v>
+        <v>1.044508770086087</v>
       </c>
       <c r="N13">
-        <v>1.047680227005864</v>
+        <v>1.034650861138365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039736448601184</v>
+        <v>1.004389687407656</v>
       </c>
       <c r="D14">
-        <v>1.048549425653073</v>
+        <v>1.026939682779836</v>
       </c>
       <c r="E14">
-        <v>1.054027233124149</v>
+        <v>1.019243670933619</v>
       </c>
       <c r="F14">
-        <v>1.061153808299552</v>
+        <v>1.030664907893717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046111815449531</v>
+        <v>1.052253452240522</v>
       </c>
       <c r="J14">
-        <v>1.046277942957329</v>
+        <v>1.033616378477542</v>
       </c>
       <c r="K14">
-        <v>1.052074291312332</v>
+        <v>1.041387158450541</v>
       </c>
       <c r="L14">
-        <v>1.057532416567933</v>
+        <v>1.033828086458053</v>
       </c>
       <c r="M14">
-        <v>1.064633720675685</v>
+        <v>1.045047049617684</v>
       </c>
       <c r="N14">
-        <v>1.047763777646086</v>
+        <v>1.035084232292436</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039825134496349</v>
+        <v>1.00485998118205</v>
       </c>
       <c r="D15">
-        <v>1.048619453583385</v>
+        <v>1.027294899553775</v>
       </c>
       <c r="E15">
-        <v>1.054117917275329</v>
+        <v>1.019672128803035</v>
       </c>
       <c r="F15">
-        <v>1.061240925652509</v>
+        <v>1.031087954747936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04613741146995</v>
+        <v>1.052423993795013</v>
       </c>
       <c r="J15">
-        <v>1.046329344683702</v>
+        <v>1.033882093344983</v>
       </c>
       <c r="K15">
-        <v>1.052124835634529</v>
+        <v>1.041650625405242</v>
       </c>
       <c r="L15">
-        <v>1.057603660839154</v>
+        <v>1.034162432622958</v>
       </c>
       <c r="M15">
-        <v>1.064701561867232</v>
+        <v>1.045377674542332</v>
       </c>
       <c r="N15">
-        <v>1.047815252368806</v>
+        <v>1.035350324505467</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040341525961419</v>
+        <v>1.007574366111037</v>
       </c>
       <c r="D16">
-        <v>1.049027228703426</v>
+        <v>1.02934670251817</v>
       </c>
       <c r="E16">
-        <v>1.054646243281069</v>
+        <v>1.022148979115341</v>
       </c>
       <c r="F16">
-        <v>1.061748359912894</v>
+        <v>1.033532494401852</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046286016540041</v>
+        <v>1.053405145795788</v>
       </c>
       <c r="J16">
-        <v>1.04662846935839</v>
+        <v>1.035414822577199</v>
       </c>
       <c r="K16">
-        <v>1.05241894770101</v>
+        <v>1.043170382673314</v>
       </c>
       <c r="L16">
-        <v>1.058018594464837</v>
+        <v>1.036093981614144</v>
       </c>
       <c r="M16">
-        <v>1.065096553628715</v>
+        <v>1.047286620430696</v>
       </c>
       <c r="N16">
-        <v>1.048114801834843</v>
+        <v>1.036885230388999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040665620594684</v>
+        <v>1.009257268656976</v>
       </c>
       <c r="D17">
-        <v>1.049283174372239</v>
+        <v>1.030620172772284</v>
       </c>
       <c r="E17">
-        <v>1.054978091451378</v>
+        <v>1.023688022787798</v>
       </c>
       <c r="F17">
-        <v>1.062066987483637</v>
+        <v>1.035050555292443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04637890178391</v>
+        <v>1.054010644963726</v>
       </c>
       <c r="J17">
-        <v>1.046816052391576</v>
+        <v>1.036364293682139</v>
       </c>
       <c r="K17">
-        <v>1.052603366905601</v>
+        <v>1.044111806504299</v>
       </c>
       <c r="L17">
-        <v>1.058279100072391</v>
+        <v>1.037293083054865</v>
       </c>
       <c r="M17">
-        <v>1.065344431811463</v>
+        <v>1.048470718091706</v>
       </c>
       <c r="N17">
-        <v>1.048302651257451</v>
+        <v>1.037836049851814</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.040854722385345</v>
+        <v>1.010231923927587</v>
       </c>
       <c r="D18">
-        <v>1.049432519917693</v>
+        <v>1.031358178602937</v>
       </c>
       <c r="E18">
-        <v>1.055171811973963</v>
+        <v>1.024580575397898</v>
       </c>
       <c r="F18">
-        <v>1.062252954938014</v>
+        <v>1.035930612674674</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046432960704105</v>
+        <v>1.054360295365726</v>
       </c>
       <c r="J18">
-        <v>1.046925447991928</v>
+        <v>1.036913877588519</v>
       </c>
       <c r="K18">
-        <v>1.052710910033354</v>
+        <v>1.044656725511709</v>
       </c>
       <c r="L18">
-        <v>1.058431130485196</v>
+        <v>1.037988089041542</v>
       </c>
       <c r="M18">
-        <v>1.065489054189796</v>
+        <v>1.049156677388412</v>
       </c>
       <c r="N18">
-        <v>1.048412202212104</v>
+        <v>1.038386414230379</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040919211824409</v>
+        <v>1.010563092265877</v>
       </c>
       <c r="D19">
-        <v>1.049483452463636</v>
+        <v>1.031609016956027</v>
       </c>
       <c r="E19">
-        <v>1.055237892592092</v>
+        <v>1.024884051373333</v>
       </c>
       <c r="F19">
-        <v>1.062316384884641</v>
+        <v>1.036229784750083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046451373110037</v>
+        <v>1.054478924357142</v>
       </c>
       <c r="J19">
-        <v>1.046962745904243</v>
+        <v>1.0371005626495</v>
       </c>
       <c r="K19">
-        <v>1.052747575100283</v>
+        <v>1.044841824560475</v>
       </c>
       <c r="L19">
-        <v>1.058482982769173</v>
+        <v>1.038224329254527</v>
       </c>
       <c r="M19">
-        <v>1.065538373288223</v>
+        <v>1.04938978304083</v>
       </c>
       <c r="N19">
-        <v>1.048449553091732</v>
+        <v>1.038573364405559</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040630841792641</v>
+        <v>1.009077432060929</v>
       </c>
       <c r="D20">
-        <v>1.049255707939659</v>
+        <v>1.03048403897556</v>
       </c>
       <c r="E20">
-        <v>1.054942470812701</v>
+        <v>1.023523432914788</v>
       </c>
       <c r="F20">
-        <v>1.062032789605115</v>
+        <v>1.034888243217008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046368948427939</v>
+        <v>1.053946046762586</v>
       </c>
       <c r="J20">
-        <v>1.046795928402558</v>
+        <v>1.036262863513507</v>
       </c>
       <c r="K20">
-        <v>1.052583583095789</v>
+        <v>1.044011236664131</v>
       </c>
       <c r="L20">
-        <v>1.058251141803126</v>
+        <v>1.037164889096344</v>
       </c>
       <c r="M20">
-        <v>1.065317832759186</v>
+        <v>1.048344164483874</v>
       </c>
       <c r="N20">
-        <v>1.048282498690061</v>
+        <v>1.037734475640708</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03969406556905</v>
+        <v>1.004164503738195</v>
       </c>
       <c r="D21">
-        <v>1.04851595969046</v>
+        <v>1.026769628929124</v>
       </c>
       <c r="E21">
-        <v>1.053983900412909</v>
+        <v>1.019038589417389</v>
       </c>
       <c r="F21">
-        <v>1.061112177985575</v>
+        <v>1.03046239805526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046099575458685</v>
+        <v>1.052171738673054</v>
       </c>
       <c r="J21">
-        <v>1.046253375009971</v>
+        <v>1.033489134779054</v>
       </c>
       <c r="K21">
-        <v>1.052050132763003</v>
+        <v>1.041260991223818</v>
       </c>
       <c r="L21">
-        <v>1.057498370657416</v>
+        <v>1.03366802928629</v>
       </c>
       <c r="M21">
-        <v>1.064601298861001</v>
+        <v>1.044888754226337</v>
       </c>
       <c r="N21">
-        <v>1.047739174809425</v>
+        <v>1.034956807893301</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039105654778151</v>
+        <v>1.001009240786075</v>
       </c>
       <c r="D22">
-        <v>1.048051374298421</v>
+        <v>1.024388844921024</v>
       </c>
       <c r="E22">
-        <v>1.053382656027918</v>
+        <v>1.016169748869693</v>
       </c>
       <c r="F22">
-        <v>1.060534423929619</v>
+        <v>1.027628311486202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045929139219208</v>
+        <v>1.051023087834714</v>
       </c>
       <c r="J22">
-        <v>1.045912092874709</v>
+        <v>1.031705200939319</v>
       </c>
       <c r="K22">
-        <v>1.05171451083456</v>
+        <v>1.039492157435852</v>
       </c>
       <c r="L22">
-        <v>1.057025822595749</v>
+        <v>1.031427544425543</v>
       </c>
       <c r="M22">
-        <v>1.064151150048306</v>
+        <v>1.042671621010198</v>
       </c>
       <c r="N22">
-        <v>1.047397408014386</v>
+        <v>1.033170340662894</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039417527179314</v>
+        <v>1.002688375161272</v>
       </c>
       <c r="D23">
-        <v>1.048297609569836</v>
+        <v>1.025655358787097</v>
       </c>
       <c r="E23">
-        <v>1.053701249248513</v>
+        <v>1.017695358721173</v>
       </c>
       <c r="F23">
-        <v>1.060840600111948</v>
+        <v>1.029135721087223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046019591920943</v>
+        <v>1.051635209505325</v>
       </c>
       <c r="J23">
-        <v>1.046093027485078</v>
+        <v>1.032654783328837</v>
       </c>
       <c r="K23">
-        <v>1.051892450838092</v>
+        <v>1.040433699454532</v>
       </c>
       <c r="L23">
-        <v>1.057276257720748</v>
+        <v>1.03261934420213</v>
       </c>
       <c r="M23">
-        <v>1.06438974736418</v>
+        <v>1.043851300983927</v>
       </c>
       <c r="N23">
-        <v>1.047578599572654</v>
+        <v>1.034121271568323</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040646556642168</v>
+        <v>1.009158713927524</v>
       </c>
       <c r="D24">
-        <v>1.049268118663089</v>
+        <v>1.030545566751255</v>
       </c>
       <c r="E24">
-        <v>1.05495856575471</v>
+        <v>1.023597819867503</v>
       </c>
       <c r="F24">
-        <v>1.062048241791944</v>
+        <v>1.034961601722795</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046373446290304</v>
+        <v>1.053975246795162</v>
       </c>
       <c r="J24">
-        <v>1.046805021624001</v>
+        <v>1.036308708482292</v>
       </c>
       <c r="K24">
-        <v>1.05259252262673</v>
+        <v>1.044056692798885</v>
       </c>
       <c r="L24">
-        <v>1.058263774688708</v>
+        <v>1.037222828033185</v>
       </c>
       <c r="M24">
-        <v>1.06532985160496</v>
+        <v>1.048401363128657</v>
       </c>
       <c r="N24">
-        <v>1.048291604824921</v>
+        <v>1.037780385714607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042075237493477</v>
+        <v>1.016396030745071</v>
       </c>
       <c r="D25">
-        <v>1.050396560835878</v>
+        <v>1.036033564508121</v>
       </c>
       <c r="E25">
-        <v>1.05642384560634</v>
+        <v>1.030246644977287</v>
       </c>
       <c r="F25">
-        <v>1.063454240346802</v>
+        <v>1.041511515808796</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046779385062849</v>
+        <v>1.05655294451994</v>
       </c>
       <c r="J25">
-        <v>1.047630524525224</v>
+        <v>1.040383927529069</v>
       </c>
       <c r="K25">
-        <v>1.053403912951063</v>
+        <v>1.048097121044912</v>
       </c>
       <c r="L25">
-        <v>1.059412940022482</v>
+        <v>1.042392888612135</v>
       </c>
       <c r="M25">
-        <v>1.066422323261479</v>
+        <v>1.053497869068262</v>
       </c>
       <c r="N25">
-        <v>1.049118280034951</v>
+        <v>1.041861392039864</v>
       </c>
     </row>
   </sheetData>
